--- a/data/stashedTrainData.XLSX
+++ b/data/stashedTrainData.XLSX
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serda\Desktop\mproj\mproj_tool\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EB42E8-99E2-4F31-9371-3407051F9906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="420" yWindow="2190" windowWidth="36225" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Unnamed: 0.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="141">
   <si>
     <t>Produktmerkmal</t>
   </si>
@@ -28,71 +28,431 @@
     <t>Produktmerkmal_Text</t>
   </si>
   <si>
-    <t>Irrelevant_1</t>
-  </si>
-  <si>
-    <t>Irrelevant_4</t>
-  </si>
-  <si>
-    <t>Irrelevant_2</t>
+    <t>Spezifikation</t>
+  </si>
+  <si>
+    <t>Oberer_Grenzwert</t>
+  </si>
+  <si>
+    <t>Unterer_Grenzwert</t>
+  </si>
+  <si>
+    <t>Prozesselement</t>
+  </si>
+  <si>
+    <t>Maschine</t>
   </si>
   <si>
     <t>Prüfmittel</t>
   </si>
   <si>
-    <t>Qualitatives_Merkmal</t>
-  </si>
-  <si>
-    <t>Spezifikation</t>
-  </si>
-  <si>
-    <t>Merkmalsgewichtung</t>
-  </si>
-  <si>
-    <t>Maßeinheit</t>
-  </si>
-  <si>
-    <t>Oberer_Grenzwert</t>
-  </si>
-  <si>
-    <t>Unterer_Grenzwert</t>
-  </si>
-  <si>
-    <t>Nachkommastellen</t>
-  </si>
-  <si>
     <t>Stichprobenverfahren</t>
   </si>
   <si>
-    <t>Irrelevant_3</t>
-  </si>
-  <si>
-    <t>Vorgang</t>
-  </si>
-  <si>
     <t>Lenkungsmethode</t>
   </si>
   <si>
-    <t>Plangruppe</t>
-  </si>
-  <si>
-    <t>Knotenplan</t>
-  </si>
-  <si>
-    <t>Verbindung</t>
-  </si>
-  <si>
-    <t>Maschine</t>
-  </si>
-  <si>
-    <t>Prozesselement</t>
+    <t>0010.
+5.a</t>
+  </si>
+  <si>
+    <t>0010.
+5.b</t>
+  </si>
+  <si>
+    <t>0010.
+5.c</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Aussen-ø37,4 +0,05</t>
+  </si>
+  <si>
+    <t>Rautiefe Rz 16</t>
+  </si>
+  <si>
+    <t>Maschinenabnahme gemäß Pb 8.5.1.3</t>
+  </si>
+  <si>
+    <t>siehe produktspezifische AA</t>
+  </si>
+  <si>
+    <t>Rautiefe Rz 30</t>
+  </si>
+  <si>
+    <t>Abstand 5+ 0,5</t>
+  </si>
+  <si>
+    <t>SW 36 -0,2/-0,05</t>
+  </si>
+  <si>
+    <t>Rautiefe 0,8x2/Rmax 10</t>
+  </si>
+  <si>
+    <t>Aussen-ø37 -0,2/-0,05</t>
+  </si>
+  <si>
+    <t>Abstand 2,65± 0,05</t>
+  </si>
+  <si>
+    <t>Abstand 3 +0,1</t>
+  </si>
+  <si>
+    <t>Abstand  5,8 ±0,1</t>
+  </si>
+  <si>
+    <t>Abstand 1+0,1</t>
+  </si>
+  <si>
+    <t>Aussen-ø15,15 +0,1</t>
+  </si>
+  <si>
+    <t>Fase 0,5 ±0,2</t>
+  </si>
+  <si>
+    <t>Rundheit 0,005</t>
+  </si>
+  <si>
+    <t>Zylinderform 0,015</t>
+  </si>
+  <si>
+    <t>Rundlauf 0,05 zu A</t>
+  </si>
+  <si>
+    <t>Rautiefe Rz 12,5</t>
+  </si>
+  <si>
+    <t>Rautiefe Rz 25</t>
+  </si>
+  <si>
+    <t>Bohrungs-ø 9-0,1</t>
+  </si>
+  <si>
+    <t>Bohrungs-ø 8,5+0,2</t>
+  </si>
+  <si>
+    <t>Bohrungstiefe 1+0,2</t>
+  </si>
+  <si>
+    <t>Rundlauf 0,1</t>
+  </si>
+  <si>
+    <t>Innen-ø33,46 +0,020/+0,004</t>
+  </si>
+  <si>
+    <t>Innen-ø33,46 +0,020</t>
+  </si>
+  <si>
+    <t>Innen-ø33,6H6</t>
+  </si>
+  <si>
+    <t>Innen-ø33,6 +0,016/+0,004</t>
+  </si>
+  <si>
+    <t>Aussen-ø37,400 +0,05</t>
+  </si>
+  <si>
+    <t>Abstand 5,5 ±0,1</t>
+  </si>
+  <si>
+    <t>Abstand 43,5 ±0,025</t>
+  </si>
+  <si>
+    <t>Abstand 48,5 ±0,1</t>
+  </si>
+  <si>
+    <t>Innen-ø 33,4 -0,05</t>
+  </si>
+  <si>
+    <t>Innen-ø 33,6 +0,016</t>
+  </si>
+  <si>
+    <t>Drehm. Rollierbereich 10±0,6</t>
+  </si>
+  <si>
+    <t>Rolliertiefe (10±0,6)</t>
+  </si>
+  <si>
+    <t>Sichtprüfung allg.</t>
+  </si>
+  <si>
+    <t>Bohrungstiefe 48,5 ±0,1</t>
+  </si>
+  <si>
+    <t>Bohrungstiefe 43,5 +-0,025</t>
+  </si>
+  <si>
+    <t>Planfläche 43,5+-0,025 ohne Absatz</t>
+  </si>
+  <si>
+    <t>Bohrungs-ø 33,1 -0,2</t>
+  </si>
+  <si>
+    <t>Bohrungs-ø 35-0,2</t>
+  </si>
+  <si>
+    <t>37,400 mm</t>
+  </si>
+  <si>
+    <t>0,000 µm</t>
+  </si>
+  <si>
+    <t>5,000 mm</t>
+  </si>
+  <si>
+    <t>36,000 mm</t>
+  </si>
+  <si>
+    <t>37,000 mm</t>
+  </si>
+  <si>
+    <t>2,650 mm</t>
+  </si>
+  <si>
+    <t>3,000 mm</t>
+  </si>
+  <si>
+    <t>5,800 mm</t>
+  </si>
+  <si>
+    <t>1,000 mm</t>
+  </si>
+  <si>
+    <t>15,150 mm</t>
+  </si>
+  <si>
+    <t>0,500 mm</t>
+  </si>
+  <si>
+    <t>0,000 mm</t>
+  </si>
+  <si>
+    <t>9,000 mm</t>
+  </si>
+  <si>
+    <t>8,500 mm</t>
+  </si>
+  <si>
+    <t>33,460 mm</t>
+  </si>
+  <si>
+    <t>33,600 mm</t>
+  </si>
+  <si>
+    <t>5,500 mm</t>
+  </si>
+  <si>
+    <t>43,500 mm</t>
+  </si>
+  <si>
+    <t>48,500 mm</t>
+  </si>
+  <si>
+    <t>33,400 mm</t>
+  </si>
+  <si>
+    <t>10,000 mm</t>
+  </si>
+  <si>
+    <t>33,100 mm</t>
+  </si>
+  <si>
+    <t>35,000 mm</t>
+  </si>
+  <si>
+    <t>Drehen Komplett</t>
+  </si>
+  <si>
+    <t>MS40-MGH</t>
+  </si>
+  <si>
+    <t>3-D Koordinaten Messmaschine</t>
+  </si>
+  <si>
+    <t>MESSUHR</t>
+  </si>
+  <si>
+    <t>Rauhigkeitsmessgerät</t>
+  </si>
+  <si>
+    <t>MESSMASCHINE</t>
+  </si>
+  <si>
+    <t>Konturenmessgerät</t>
+  </si>
+  <si>
+    <t>visuelle Prüfung</t>
+  </si>
+  <si>
+    <t>SONST. MESSMITTEL</t>
+  </si>
+  <si>
+    <t>2/30</t>
+  </si>
+  <si>
+    <t>2/20</t>
+  </si>
+  <si>
+    <t>1/444</t>
+  </si>
+  <si>
+    <t>1/KISTE</t>
+  </si>
+  <si>
+    <t>1/60</t>
+  </si>
+  <si>
+    <t>1/555</t>
+  </si>
+  <si>
+    <t>6/30</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>WZW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,17 +511,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -199,7 +567,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -233,6 +601,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -267,9 +636,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -442,14 +812,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Y1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,48 +852,1740 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="G2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="G3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="G4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>37.450000000000003</v>
+      </c>
+      <c r="F5">
+        <v>37.4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10">
+        <v>5.5</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="F11">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="F13">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14">
+        <v>2.7</v>
+      </c>
+      <c r="F14">
+        <v>2.6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
       </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15">
+        <v>3.1</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16">
+        <v>5.9</v>
+      </c>
+      <c r="F16">
+        <v>5.7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18">
+        <v>15.25</v>
+      </c>
+      <c r="F18">
+        <v>15.15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19">
+        <v>0.7</v>
+      </c>
+      <c r="F19">
+        <v>0.3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22">
+        <v>0.05</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23">
+        <v>12.5</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" t="s">
+        <v>127</v>
+      </c>
+      <c r="J24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>8.9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" t="s">
+        <v>133</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F26">
+        <v>8.5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27">
+        <v>1.2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28">
+        <v>0.2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" t="s">
+        <v>126</v>
+      </c>
+      <c r="J28" t="s">
+        <v>134</v>
+      </c>
+      <c r="K28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="F29">
+        <v>33.463999999999999</v>
+      </c>
+      <c r="G29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" t="s">
+        <v>128</v>
+      </c>
+      <c r="J30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32">
+        <v>33.616</v>
+      </c>
+      <c r="F32">
+        <v>33.603999999999999</v>
+      </c>
+      <c r="G32" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" t="s">
+        <v>126</v>
+      </c>
+      <c r="J32" t="s">
+        <v>138</v>
+      </c>
+      <c r="K32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>37.450000000000003</v>
+      </c>
+      <c r="F33">
+        <v>37.4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" t="s">
+        <v>124</v>
+      </c>
+      <c r="I33" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34">
+        <v>5.6</v>
+      </c>
+      <c r="F34">
+        <v>5.4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" t="s">
+        <v>128</v>
+      </c>
+      <c r="J34" t="s">
+        <v>139</v>
+      </c>
+      <c r="K34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35">
+        <v>43.524999999999999</v>
+      </c>
+      <c r="F35">
+        <v>43.475000000000001</v>
+      </c>
+      <c r="G35" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" t="s">
+        <v>128</v>
+      </c>
+      <c r="J35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36">
+        <v>48.6</v>
+      </c>
+      <c r="F36">
+        <v>48.4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" t="s">
+        <v>124</v>
+      </c>
+      <c r="I36" t="s">
+        <v>128</v>
+      </c>
+      <c r="J36" t="s">
+        <v>139</v>
+      </c>
+      <c r="K36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37">
+        <v>33.4</v>
+      </c>
+      <c r="F37">
+        <v>33.35</v>
+      </c>
+      <c r="G37" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" t="s">
+        <v>124</v>
+      </c>
+      <c r="I37" t="s">
+        <v>128</v>
+      </c>
+      <c r="J37" t="s">
+        <v>139</v>
+      </c>
+      <c r="K37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38">
+        <v>33.616</v>
+      </c>
+      <c r="F38">
+        <v>33.6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" t="s">
+        <v>126</v>
+      </c>
+      <c r="J38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>37.450000000000003</v>
+      </c>
+      <c r="F39">
+        <v>37.4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" t="s">
+        <v>124</v>
+      </c>
+      <c r="I39" t="s">
+        <v>126</v>
+      </c>
+      <c r="J39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40">
+        <v>10.6</v>
+      </c>
+      <c r="F40">
+        <v>9.4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40" t="s">
+        <v>137</v>
+      </c>
+      <c r="K40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" t="s">
+        <v>125</v>
+      </c>
+      <c r="J41" t="s">
+        <v>132</v>
+      </c>
+      <c r="K41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" t="s">
+        <v>124</v>
+      </c>
+      <c r="I42" t="s">
+        <v>126</v>
+      </c>
+      <c r="J42" t="s">
+        <v>134</v>
+      </c>
+      <c r="K42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43">
+        <v>48.6</v>
+      </c>
+      <c r="F43">
+        <v>48.4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" t="s">
+        <v>126</v>
+      </c>
+      <c r="J43" t="s">
+        <v>133</v>
+      </c>
+      <c r="K43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44">
+        <v>43.524999999999999</v>
+      </c>
+      <c r="F44">
+        <v>43.475000000000001</v>
+      </c>
+      <c r="G44" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" t="s">
+        <v>126</v>
+      </c>
+      <c r="J44" t="s">
+        <v>133</v>
+      </c>
+      <c r="K44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45">
+        <v>43.524999999999999</v>
+      </c>
+      <c r="F45">
+        <v>43.475000000000001</v>
+      </c>
+      <c r="G45" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" t="s">
+        <v>124</v>
+      </c>
+      <c r="I45" t="s">
+        <v>129</v>
+      </c>
+      <c r="J45" t="s">
+        <v>140</v>
+      </c>
+      <c r="K45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46">
+        <v>43.524999999999999</v>
+      </c>
+      <c r="F46">
+        <v>43.475000000000001</v>
+      </c>
+      <c r="G46" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" t="s">
+        <v>126</v>
+      </c>
+      <c r="J46" t="s">
+        <v>132</v>
+      </c>
+      <c r="K46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47">
+        <v>33.1</v>
+      </c>
+      <c r="F47">
+        <v>32.9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47" t="s">
+        <v>124</v>
+      </c>
+      <c r="I47" t="s">
+        <v>126</v>
+      </c>
+      <c r="J47" t="s">
+        <v>133</v>
+      </c>
+      <c r="K47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48">
+        <v>35</v>
+      </c>
+      <c r="F48">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G48" t="s">
+        <v>123</v>
+      </c>
+      <c r="H48" t="s">
+        <v>124</v>
+      </c>
+      <c r="I48" t="s">
+        <v>126</v>
+      </c>
+      <c r="J48" t="s">
+        <v>133</v>
+      </c>
+      <c r="K48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49">
+        <v>0.05</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>123</v>
+      </c>
+      <c r="H49" t="s">
+        <v>124</v>
+      </c>
+      <c r="I49" t="s">
+        <v>126</v>
+      </c>
+      <c r="J49" t="s">
+        <v>136</v>
+      </c>
+      <c r="K49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
